--- a/static/data/volum/tpl/volumes.xlsx
+++ b/static/data/volum/tpl/volumes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Объемы выполненых работ по ТФОМС</t>
   </si>
@@ -44,6 +44,12 @@
   </si>
   <si>
     <t>Травма персон</t>
+  </si>
+  <si>
+    <t>Проф визиты</t>
+  </si>
+  <si>
+    <t>Проф персон</t>
   </si>
 </sst>
 </file>
@@ -449,75 +455,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="2" width="11.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="5" customWidth="1"/>
+    <col min="5" max="6" width="10.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
       <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="10"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
       <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="D3" s="8"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="I4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="J4" s="9" t="s">
         <v>9</v>
       </c>
     </row>
